--- a/database.xlsx
+++ b/database.xlsx
@@ -1,24 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\techn\OneDrive\Documents\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40001_{C6DB07F1-72DF-4E88-AA58-C2DF5F9F8D66}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="9060"/>
   </bookViews>
   <sheets>
     <sheet name="Users" sheetId="1" r:id="rId1"/>
     <sheet name="Locality" sheetId="3" r:id="rId2"/>
     <sheet name="SensorMeasurments" sheetId="2" r:id="rId3"/>
     <sheet name="invoice" sheetId="4" r:id="rId4"/>
+    <sheet name="Roles" sheetId="5" r:id="rId5"/>
+    <sheet name="User_roles" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,50 +29,26 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="32">
   <si>
     <t>ID</t>
   </si>
   <si>
-    <t>Full name</t>
-  </si>
-  <si>
     <t>measurment in liter</t>
   </si>
   <si>
     <t>timestamp</t>
   </si>
   <si>
-    <t>LocalityID</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>username</t>
-  </si>
-  <si>
-    <t>hashPassword</t>
-  </si>
-  <si>
-    <t>phone num</t>
-  </si>
-  <si>
     <t xml:space="preserve">email </t>
   </si>
   <si>
-    <t>better to use the mobile alone</t>
-  </si>
-  <si>
     <t>FieldName</t>
   </si>
   <si>
     <t>Remarks</t>
   </si>
   <si>
-    <t>Total Capcaity</t>
-  </si>
-  <si>
     <t>how much water the area can provide</t>
   </si>
   <si>
@@ -89,22 +61,76 @@
     <t>paid money</t>
   </si>
   <si>
-    <t>total paid</t>
-  </si>
-  <si>
-    <t>total to pay</t>
-  </si>
-  <si>
-    <t>user might pay more or less</t>
-  </si>
-  <si>
     <t>amount of paid money in this transaction</t>
   </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>first_name</t>
+  </si>
+  <si>
+    <t>last_name</t>
+  </si>
+  <si>
+    <t>locality_id</t>
+  </si>
+  <si>
+    <t>created_time</t>
+  </si>
+  <si>
+    <t>updated_time</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>PK</t>
+  </si>
+  <si>
+    <t>FK</t>
+  </si>
+  <si>
+    <t>user_role_id</t>
+  </si>
+  <si>
+    <t>phone_num</t>
+  </si>
+  <si>
+    <t>role</t>
+  </si>
+  <si>
+    <t>role_description</t>
+  </si>
+  <si>
+    <t>user_id</t>
+  </si>
+  <si>
+    <t>role_id</t>
+  </si>
+  <si>
+    <t>Roles</t>
+  </si>
+  <si>
+    <t>Users</t>
+  </si>
+  <si>
+    <t>house_num</t>
+  </si>
+  <si>
+    <t>street</t>
+  </si>
+  <si>
+    <t>city</t>
+  </si>
+  <si>
+    <t>pincode</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -211,7 +237,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -263,7 +289,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -457,7 +483,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -465,75 +491,83 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.5546875" customWidth="1"/>
-    <col min="2" max="2" width="27.33203125" customWidth="1"/>
+    <col min="1" max="1" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>17</v>
+      </c>
+      <c r="B2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>1</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>4</v>
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>19</v>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -543,24 +577,24 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.109375" customWidth="1"/>
-    <col min="2" max="2" width="36.44140625" customWidth="1"/>
+    <col min="1" max="1" width="13.140625" customWidth="1"/>
+    <col min="2" max="2" width="36.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -570,15 +604,25 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -594,36 +638,36 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.33203125" customWidth="1"/>
-    <col min="2" max="2" width="49.5546875" customWidth="1"/>
+    <col min="1" max="1" width="18.28515625" customWidth="1"/>
+    <col min="2" max="2" width="49.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -635,27 +679,108 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.5546875" customWidth="1"/>
-    <col min="2" max="2" width="35.109375" customWidth="1"/>
+    <col min="1" max="1" width="16.5703125" customWidth="1"/>
+    <col min="2" max="2" width="35.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>17</v>
       </c>
+      <c r="B1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>24</v>
+      </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>19</v>
+      </c>
+      <c r="C2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
